--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B11F77-DE2B-48F1-AE22-FAB1C7F55601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546CA678-A7C1-4543-AA02-E7B13D25BA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DA1DB72F-66A6-45C7-8F77-4CEA905D1532}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -54,51 +57,57 @@
     <t>cr_dtimes</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>string</t>
+    <t>residenceStatus</t>
   </si>
   <si>
     <t>{
 "code": "MLE",
-"value": "Homme"
+"value": "Male"
 }</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>superadmin</t>
-  </si>
-  <si>
-    <t>now()</t>
   </si>
   <si>
     <t>{
 "code": "FLE",
-"value": "Femme"
+"value": "Female"
 }</t>
   </si>
   <si>
-    <t>residenceStatus</t>
-  </si>
-  <si>
-    <t>Statut de résidence</t>
+    <t>Residence Status</t>
   </si>
   <si>
     <t>{
 "code": "FR",
-"value": "Étranger"
+"value": "Foreigner"
 }</t>
   </si>
   <si>
     <t>{
-"code": "NFR",
-"value": "Non Etranger"
+"code": "CIT",
+"value": "Citizen"
+}</t>
+  </si>
+  <si>
+    <t>{
+"code": "ECO",
+"value": "ECOWAS"
 }</t>
   </si>
 </sst>
@@ -106,25 +115,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -136,12 +153,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -176,16 +208,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,15 +240,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +257,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +304,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -256,7 +316,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -303,23 +363,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,23 +398,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,169 +549,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBA78A5-FFC5-480A-AF39-602AC2897577}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="62.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
         <v>10001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="b">
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>10002</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="b">
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>10003</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="62.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>10004</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="2"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="2"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E12" s="2"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E26" s="2"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E47" s="2"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E48" s="2"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49" s="2"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E50" s="2"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E51" s="2"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E52" s="2"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E53" s="2"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E54" s="2"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E55" s="2"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E56" s="2"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E57" s="2"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E58" s="2"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E59" s="2"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E60" s="2"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E61" s="2"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E62" s="2"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E63" s="2"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E64" s="2"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E65" s="2"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E66" s="2"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E67" s="2"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E68" s="2"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E69" s="2"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E70" s="2"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E71" s="2"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E72" s="2"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E73" s="2"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E74" s="2"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E75" s="2"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E76" s="2"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E77" s="2"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E78" s="2"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E79" s="2"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E80" s="2"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E81" s="2"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E82" s="2"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E83" s="2"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E84" s="2"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E85" s="2"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E86" s="2"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E87" s="2"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E88" s="2"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E89" s="2"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E90" s="2"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E91" s="2"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E92" s="2"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E93" s="2"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E94" s="2"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E95" s="2"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E96" s="2"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E97" s="2"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E98" s="2"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:I103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>